--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.051135922295186514</t>
+          <t>0.0502675571743328</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0510472394061866</t>
+          <t>0.05812112249685145</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.04803644891306021</t>
+          <t>0.049259301273169</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.052802201192807534</t>
+          <t>0.05372030326425987</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.33435108726915874</t>
+          <t>0.3210256033182349</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.32862355742536886</t>
+          <t>0.32094250713393774</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.33077159160194197</t>
+          <t>0.3181171039217904</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3222477486248964</t>
+          <t>0.33259208720748956</t>
         </is>
       </c>
     </row>
@@ -569,309 +569,261 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1221693552490967</v>
+        <v>0.1063686326395603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1295393990230424</v>
+        <v>0.1126276705975231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1247308741208555</v>
+        <v>0.1085653796469069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1281157209403689</v>
+        <v>0.1127584516058732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1231884057971015</v>
+        <v>0.1096608144130894</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1128387415678065</v>
+        <v>0.1046318911374738</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1215530367112164</v>
+        <v>0.1102605312129927</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.11309153665049529</t>
+          <t>0.1221168598051662</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.12920648189033018</t>
+          <t>0.12216996558172934</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.11532285229386958</t>
+          <t>0.11994180042745012</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.12525864913644874</t>
+          <t>0.12157104657819155</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AssetLife</t>
+          <t>POR_Capex</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.58349514563107</v>
+        <v>-0.02786117754821638</v>
       </c>
       <c r="C5" t="n">
-        <v>17.65291479820628</v>
+        <v>-0.02543543691715597</v>
       </c>
       <c r="D5" t="n">
-        <v>15.72491039426523</v>
+        <v>-0.01980766470503804</v>
       </c>
       <c r="E5" t="n">
-        <v>16.03584558823529</v>
+        <v>-0.02285543054836689</v>
       </c>
       <c r="F5" t="n">
-        <v>17.86127744510978</v>
+        <v>-0.02775990440297822</v>
       </c>
       <c r="G5" t="n">
-        <v>14.76941946034342</v>
+        <v>-0.02602349383577576</v>
       </c>
       <c r="H5" t="n">
-        <v>14.93687707641196</v>
+        <v>-0.02159815034117183</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16.548709448883127</t>
+          <t>-0.020395815576978105</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13.931041044336258</t>
+          <t>-0.02840590381214403</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>17.851188497669824</t>
+          <t>-0.01877357418756707</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16.01294092544673</t>
+          <t>-0.02850286042464572</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Margin_Operating</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1474098010279375</v>
-      </c>
+          <t>FA_Rtmt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.1486221443726254</v>
+        <v>351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1537247021673604</v>
+        <v>2605</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1792203546814133</v>
+        <v>536</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1668505070931764</v>
+        <v>282</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1713843335659456</v>
+        <v>782</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1727288106919303</v>
+        <v>454</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1912341853363161</v>
+        <v>1624.61945483703</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1644641245718531</v>
+        <v>665.3579328101949</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1886409426070647</v>
+        <v>909.2255055891154</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1677511039035698</v>
+        <v>1962.882464413945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Cost_Debt</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0259009009009009</v>
-      </c>
+          <t>FA_Rtmt_Pct</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.0259009009009009</v>
+        <v>0.02419521610257117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0259009009009009</v>
+        <v>0.171528280766445</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0259009009009009</v>
+        <v>0.03997017151379567</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0259009009009009</v>
+        <v>0.02056442791511704</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0259009009009009</v>
+        <v>0.05454418637092837</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0259009009009009</v>
+        <v>0.03141868512110726</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.025900900900900917</t>
+          <t>0.11005415626859705</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.025900900900900914</t>
+          <t>0.038804664779992865</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.025900900900900897</t>
+          <t>0.048027683884570294</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.025900900900900897</t>
+          <t>0.09520749412427995</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Margin_Pretax</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1388097297847438</v>
-      </c>
+          <t>IA_Rtmt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.1408262199634874</v>
+        <v>-314</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1449452179321564</v>
+        <v>141</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1694952191560653</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1558507215736741</v>
+        <v>-248</v>
       </c>
       <c r="G8" t="n">
-        <v>0.161411083973017</v>
+        <v>-339</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1610556589409575</v>
+        <v>133</v>
       </c>
       <c r="I8" t="n">
-        <v>0.179795753780054</v>
+        <v>-620.4145921538691</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1532547478081538</v>
+        <v>218.6091780238918</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1776244764540178</v>
+        <v>-98.12406871917631</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1569732387691861</v>
+        <v>-104.1004302670289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TaxRate</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2934653102373751</v>
-      </c>
+          <t>IA_Rtmt_Pct</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.9393421801778128</v>
+        <v>-0.04293723506085054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1087638224129394</v>
+        <v>0.01848695424151042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2135969141755063</v>
+        <v>0.002003740315255143</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2254988695566696</v>
+        <v>-0.03319502074688797</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2927268633190723</v>
+        <v>-0.04391760590750097</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2471988795518207</v>
+        <v>0.01650533631173989</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.80268310149089</t>
+          <t>-0.0782857529531696</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.7126396011138303</t>
+          <t>0.0299276640381363</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.26062654034079963</t>
+          <t>-0.013042872625343468</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.34182177892405025</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Margin_NetIncome</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.09807388936949774</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.008542211476784922</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1291804219893785</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1332915633768286</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1207065600392193</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1141617236566643</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1212428805052727</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.03547674050098785</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.04403934546135042</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1313308236759613</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.1033163670496332</v>
+          <t>-0.014020126815842606</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0502675571743328</t>
+          <t>0.0516518828880391</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.05812112249685145</t>
+          <t>0.06769871860447405</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.049259301273169</t>
+          <t>0.04978191097246588</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.05372030326425987</t>
+          <t>0.08075674827255874</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3210256033182349</t>
+          <t>0.3395485565613667</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.32094250713393774</t>
+          <t>0.3174093811100667</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3181171039217904</t>
+          <t>0.31212955637016887</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.33259208720748956</t>
+          <t>0.3419619381069158</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.1221168598051662</t>
+          <t>0.12002027535891759</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.12216996558172934</t>
+          <t>0.12019249875374037</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.11994180042745012</t>
+          <t>0.12118439626073267</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.12157104657819155</t>
+          <t>0.11942117938604299</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.020395815576978105</t>
+          <t>-0.02004023982755784</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.02840590381214403</t>
+          <t>-0.020005188251700043</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.01877357418756707</t>
+          <t>-0.026676363009160205</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.02850286042464572</t>
+          <t>-0.02321355018606807</t>
         </is>
       </c>
     </row>
@@ -666,34 +666,34 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>351</v>
+        <v>-351</v>
       </c>
       <c r="D6" t="n">
-        <v>2605</v>
+        <v>-2605</v>
       </c>
       <c r="E6" t="n">
-        <v>536</v>
+        <v>-536</v>
       </c>
       <c r="F6" t="n">
-        <v>282</v>
+        <v>-282</v>
       </c>
       <c r="G6" t="n">
-        <v>782</v>
+        <v>-782</v>
       </c>
       <c r="H6" t="n">
-        <v>454</v>
+        <v>-454</v>
       </c>
       <c r="I6" t="n">
-        <v>1624.61945483703</v>
+        <v>-702.7671917081522</v>
       </c>
       <c r="J6" t="n">
-        <v>665.3579328101949</v>
+        <v>-1427.052069531629</v>
       </c>
       <c r="K6" t="n">
-        <v>909.2255055891154</v>
+        <v>-16.0670692620065</v>
       </c>
       <c r="L6" t="n">
-        <v>1962.882464413945</v>
+        <v>-348.0026206266321</v>
       </c>
     </row>
     <row r="7">
@@ -704,41 +704,41 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.02419521610257117</v>
+        <v>-0.02419521610257117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.171528280766445</v>
+        <v>-0.171528280766445</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03997017151379567</v>
+        <v>-0.03997017151379567</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02056442791511704</v>
+        <v>-0.02056442791511704</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05454418637092837</v>
+        <v>-0.05454418637092837</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03141868512110726</v>
+        <v>-0.03141868512110726</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.11005415626859705</t>
+          <t>-0.04760650262214823</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.038804664779992865</t>
+          <t>-0.09637886227795081</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.048027683884570294</t>
+          <t>-0.0011333750489895683</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.09520749412427995</t>
+          <t>-0.022781821424236334</t>
         </is>
       </c>
     </row>
@@ -750,34 +750,34 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>-314</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>141</v>
+        <v>-141</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F8" t="n">
-        <v>-248</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-339</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>133</v>
+        <v>-133</v>
       </c>
       <c r="I8" t="n">
-        <v>-620.4145921538691</v>
+        <v>-59.39251123453419</v>
       </c>
       <c r="J8" t="n">
-        <v>218.6091780238918</v>
+        <v>-40.67074508806903</v>
       </c>
       <c r="K8" t="n">
-        <v>-98.12406871917631</v>
+        <v>-46.28133726466758</v>
       </c>
       <c r="L8" t="n">
-        <v>-104.1004302670289</v>
+        <v>-45.20848651192274</v>
       </c>
     </row>
     <row r="9">
@@ -788,42 +788,306 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>-0.04293723506085054</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01848695424151042</v>
+        <v>-0.01848695424151042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002003740315255143</v>
+        <v>-0.002003740315255143</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03319502074688797</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04391760590750097</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01650533631173989</v>
+        <v>-0.01650533631173989</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.0782857529531696</t>
+          <t>-0.007494323184168352</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.0299276640381363</t>
+          <t>-0.005170706159207602</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.013042872625343468</t>
+          <t>-0.005914595706101168</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.014020126815842606</t>
-        </is>
+          <t>-0.005811863895481581</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AssetLife</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>21.18446601941747</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.4609865470852</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.72401433691756</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19.47058823529412</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22.01197604790419</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.40392477514309</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.84302325581395</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>21.69663188574234</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20.440080194792912</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>19.596740289081588</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>21.119461716088562</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Margin_Operating</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.18941784133123</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.193041644051907</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1965874838524473</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2242161322836362</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2110794497043233</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2151517794836008</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2179693227316303</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2195282812024491</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1972168823563263</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1909451601094362</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2225407587208728</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cost_Debt</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02456535928321367</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02456535928321367</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02456535928321367</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02456535928321367</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02456535928321367</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02456535928321367</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02456535928321367</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.02456535928321366</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.02456535928321367</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.024565359283213666</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.024565359283213666</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Margin_Pretax</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1808177700880362</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.185245719642769</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1878079996172432</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2144909967582882</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2000796641848209</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2051785298906723</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2062961709806575</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2080954615601893</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1861877371243089</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1801238462058135</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.2122276578880104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TaxRate</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2252867093505945</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7141002164141834</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08394102474285896</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1687886966185109</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1756508422664625</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2302841351945015</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1929884507619763</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.38073030907421734</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.17665542104622595</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.33989197470717936</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.4768685959682759</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Margin_NetIncome</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1400819296727902</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05296171115606652</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1720432036744654</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1782873409790515</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1649355026503662</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1579291695743196</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1664833925449727</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1288672121634365</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.15329666402897</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1189011964270673</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1110229526453193</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0516518828880391</t>
+          <t>0.05449549527957947</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.06769871860447405</t>
+          <t>0.05671062721155959</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.04978191097246588</t>
+          <t>0.05235890543226799</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.08075674827255874</t>
+          <t>0.06547791655051814</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3395485565613667</t>
+          <t>0.30993040403976746</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3174093811100667</t>
+          <t>0.33488770869666895</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.31212955637016887</t>
+          <t>0.3218287865848342</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3419619381069158</t>
+          <t>0.3206081546881996</t>
         </is>
       </c>
     </row>
@@ -569,44 +569,44 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1063686326395603</v>
+        <v>0.1221693552490967</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1126276705975231</v>
+        <v>0.1295393990230424</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1085653796469069</v>
+        <v>0.1247308741208555</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1127584516058732</v>
+        <v>0.1281157209403689</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1096608144130894</v>
+        <v>0.1231884057971015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1046318911374738</v>
+        <v>0.1128387415678065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1102605312129927</v>
+        <v>0.1215530367112164</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.12002027535891759</t>
+          <t>0.12411737820832339</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.12019249875374037</t>
+          <t>0.11746819404277979</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.12118439626073267</t>
+          <t>0.11730372797901606</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.11942117938604299</t>
+          <t>0.11385764839296973</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.02004023982755784</t>
+          <t>-0.02747393911721845</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.020005188251700043</t>
+          <t>-0.02407218428264597</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.026676363009160205</t>
+          <t>-0.024208499043770378</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.02321355018606807</t>
+          <t>-0.020740634241591123</t>
         </is>
       </c>
     </row>
@@ -684,16 +684,16 @@
         <v>-454</v>
       </c>
       <c r="I6" t="n">
-        <v>-702.7671917081522</v>
+        <v>-1325.782398520121</v>
       </c>
       <c r="J6" t="n">
-        <v>-1427.052069531629</v>
+        <v>-1707.449736937456</v>
       </c>
       <c r="K6" t="n">
-        <v>-16.0670692620065</v>
+        <v>-1299.083540592139</v>
       </c>
       <c r="L6" t="n">
-        <v>-348.0026206266321</v>
+        <v>-1127.39332739625</v>
       </c>
     </row>
     <row r="7">
@@ -723,22 +723,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.04760650262214823</t>
+          <t>-0.08981048628370956</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.09637886227795081</t>
+          <t>-0.11805062087995014</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-0.0011333750489895683</t>
+          <t>-0.09477116250829476</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.022781821424236334</t>
+          <t>-0.08403785991908497</t>
         </is>
       </c>
     </row>
@@ -768,16 +768,16 @@
         <v>-133</v>
       </c>
       <c r="I8" t="n">
-        <v>-59.39251123453419</v>
+        <v>-47.78082545527123</v>
       </c>
       <c r="J8" t="n">
-        <v>-40.67074508806903</v>
+        <v>-11.39423733248062</v>
       </c>
       <c r="K8" t="n">
-        <v>-46.28133726466758</v>
+        <v>-123.0840636491729</v>
       </c>
       <c r="L8" t="n">
-        <v>-45.20848651192274</v>
+        <v>-73.19997140000238</v>
       </c>
     </row>
     <row r="9">
@@ -807,22 +807,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.007494323184168352</t>
+          <t>-0.006029126240412774</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.005170706159207602</t>
+          <t>-0.0014464796624297513</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.005914595706101168</t>
+          <t>-0.01564795360075678</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.005811863895481581</t>
+          <t>-0.009454012809590129</t>
         </is>
       </c>
     </row>
@@ -855,22 +855,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21.69663188574234</t>
+          <t>20.427661505745398</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20.440080194792912</t>
+          <t>19.07371502758042</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>19.596740289081588</t>
+          <t>18.355813472768844</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21.119461716088562</t>
+          <t>20.460782348613098</t>
         </is>
       </c>
     </row>
@@ -881,37 +881,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.18941784133123</v>
+        <v>0.1539616304513765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.193041644051907</v>
+        <v>0.155499087186066</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1965874838524473</v>
+        <v>0.160399023970145</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2242161322836362</v>
+        <v>0.1866299817483451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2110794497043233</v>
+        <v>0.1745258448999602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2151517794836008</v>
+        <v>0.1802744824377762</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2179693227316303</v>
+        <v>0.1812158123272994</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2195282812024491</v>
+        <v>0.1638805898983191</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1972168823563263</v>
+        <v>0.1959544743523648</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1909451601094362</v>
+        <v>0.183738325489277</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2225407587208728</v>
+        <v>0.1894811733500394</v>
       </c>
     </row>
     <row r="12">
@@ -943,22 +943,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.024565359283213666</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.024565359283213666</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>0.02456535928321366</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.02456535928321367</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.024565359283213666</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.024565359283213666</t>
+          <t>0.024565359283213663</t>
         </is>
       </c>
     </row>
@@ -969,37 +969,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1808177700880362</v>
+        <v>0.1479568469797975</v>
       </c>
       <c r="C13" t="n">
-        <v>0.185245719642769</v>
+        <v>0.1714609957073074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1878079996172432</v>
+        <v>0.1791062628582364</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2144909967582882</v>
+        <v>0.2059168051431529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2000796641848209</v>
+        <v>0.1842081073628091</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2051785298906723</v>
+        <v>0.2103686903931147</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2062961709806575</v>
+        <v>0.1798624034286359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2080954615601893</v>
+        <v>0.1524786006462795</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1861877371243089</v>
+        <v>0.1848406948301592</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1801238462058135</v>
+        <v>0.1728606744818295</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2122276578880104</v>
+        <v>0.1789657226178987</v>
       </c>
     </row>
     <row r="14">
@@ -1009,44 +1009,44 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2252867093505945</v>
+        <v>0.2753224419604471</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7141002164141834</v>
+        <v>0.7715107913669065</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08394102474285896</v>
+        <v>0.0880192333377855</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1687886966185109</v>
+        <v>0.1758169069982802</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1756508422664625</v>
+        <v>0.1907850964737192</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2302841351945015</v>
+        <v>0.2246026261230131</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1929884507619763</v>
+        <v>0.2213513089825992</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.38073030907421734</t>
+          <t>0.2782012007489644</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.17665542104622595</t>
+          <t>0.2782012007489644</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.33989197470717936</t>
+          <t>0.2782012007489644</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.4768685959682759</t>
+          <t>0.2782012007489644</t>
         </is>
       </c>
     </row>
@@ -1057,37 +1057,373 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1400819296727902</v>
+        <v>0.1072210065645514</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05296171115606652</v>
+        <v>0.03917698722060493</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1720432036744654</v>
+        <v>0.1633414669154586</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1782873409790515</v>
+        <v>0.1697131493639162</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1649355026503662</v>
+        <v>0.1490639458283543</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1579291695743196</v>
+        <v>0.163119330076762</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1664833925449727</v>
+        <v>0.140049624992951</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1288672121634365</v>
+        <v>0.1100588708579627</v>
       </c>
       <c r="J15" t="n">
-        <v>0.15329666402897</v>
+        <v>0.133417791581136</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1189011964270673</v>
+        <v>0.1247706272787086</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1110229526453193</v>
+        <v>0.1291772436926932</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Turn_AR</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.806408218172924</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.571847507331379</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.56766116142781</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.899105832109969</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.7805771202578</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.035431918008785</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.766935483870967</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5.278979468388568</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>5.096516681026058</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4.444996472338829</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>4.267616880272932</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Turn_AP</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.864147627416521</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.27460510328068</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.180310326377742</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.247643979057592</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.855478260869565</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.607958050586058</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.764417759519672</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>5.195899675571253</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3.8809166587676187</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4.124106588089832</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>4.82882380652686</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Turn_Inv</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6.339212093449381</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.101018859744201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.714285714285714</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.505315539470708</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.938516373357095</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.553133514986376</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.302094618996027</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>5.5591097982557285</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>5.516759274643206</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>5.141724405691164</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>6.137489379146446</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>POR_Other_CA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.02931148542058928</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.04208812355059949</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.03870628199607674</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.05374703751123703</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0502190765082575</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05469295184926727</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05340325945976428</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.039380959966773925</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.0541755860797116</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.07354922652228044</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.038274274962721844</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>POR_Other_NCA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.06022594270011705</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1011989934376079</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1839146452322855</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2496935356452096</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3228850690933603</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3182426145615259</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.286415158179665</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.2654075450351007</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.4059127143951132</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.3302061870038986</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.24811915449530003</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>POR_Other_CL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1793292962190219</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1719050673508659</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1640830582268791</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2036557792366994</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2268897263841652</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2232786694580135</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.2583319235323972</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.16902829877383468</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.2031359187453082</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.15071338748901603</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.21622486031017008</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>POR_Other_NCL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.154852170373009</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2805299254946464</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2568058944548108</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2932523359394154</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3449152802034501</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3333914863921842</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2789996052557379</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.3933055462031383</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.28896842486431557</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.32936345984789916</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.2750138476072178</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.05449549527957947</t>
+          <t>0.06747972680192592</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.05671062721155959</t>
+          <t>0.058862832658880676</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.05235890543226799</t>
+          <t>0.052503409261363244</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.06547791655051814</t>
+          <t>0.05819041738835165</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.30993040403976746</t>
+          <t>0.32944737439193755</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.33488770869666895</t>
+          <t>0.3210140477356746</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3218287865848342</t>
+          <t>0.34435869745483993</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3206081546881996</t>
+          <t>0.32729796577847525</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.12411737820832339</t>
+          <t>0.12960313529340733</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.11746819404277979</t>
+          <t>0.12551409132189856</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.11730372797901606</t>
+          <t>0.12197675848889541</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.11385764839296973</t>
+          <t>0.11718039102671929</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.02747393911721845</t>
+          <t>-0.022279361124287075</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.02407218428264597</t>
+          <t>-0.02486359393980928</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.024208499043770378</t>
+          <t>-0.027156367759037594</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.020740634241591123</t>
+          <t>-0.021835442987779702</t>
         </is>
       </c>
     </row>
@@ -684,16 +684,16 @@
         <v>-454</v>
       </c>
       <c r="I6" t="n">
-        <v>-1325.782398520121</v>
+        <v>-671.4553535392296</v>
       </c>
       <c r="J6" t="n">
-        <v>-1707.449736937456</v>
+        <v>-1052.409261160141</v>
       </c>
       <c r="K6" t="n">
-        <v>-1299.083540592139</v>
+        <v>-331.3742931089296</v>
       </c>
       <c r="L6" t="n">
-        <v>-1127.39332739625</v>
+        <v>-826.8126821967937</v>
       </c>
     </row>
     <row r="7">
@@ -723,22 +723,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.08981048628370956</t>
+          <t>-0.04548539178561371</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.11805062087995014</t>
+          <t>-0.07047057407028598</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-0.09477116250829476</t>
+          <t>-0.022272262119733384</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.08403785991908497</t>
+          <t>-0.05268752334420541</t>
         </is>
       </c>
     </row>
@@ -768,16 +768,16 @@
         <v>-133</v>
       </c>
       <c r="I8" t="n">
-        <v>-47.78082545527123</v>
+        <v>-144.9124082704067</v>
       </c>
       <c r="J8" t="n">
-        <v>-11.39423733248062</v>
+        <v>-102.7190359280387</v>
       </c>
       <c r="K8" t="n">
-        <v>-123.0840636491729</v>
+        <v>-6.821008119430902</v>
       </c>
       <c r="L8" t="n">
-        <v>-73.19997140000238</v>
+        <v>-52.77042202562645</v>
       </c>
     </row>
     <row r="9">
@@ -807,22 +807,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.006029126240412774</t>
+          <t>-0.018285477384278447</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.0014464796624297513</t>
+          <t>-0.013202812271320875</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.01564795360075678</t>
+          <t>-0.0008884565160384899</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.009454012809590129</t>
+          <t>-0.006879616050561156</t>
         </is>
       </c>
     </row>
@@ -855,22 +855,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20.427661505745398</t>
+          <t>20.858888511476998</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>19.07371502758042</t>
+          <t>20.598654853166334</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>18.355813472768844</t>
+          <t>17.573082250483843</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>20.460782348613098</t>
+          <t>17.505244314597906</t>
         </is>
       </c>
     </row>
@@ -902,16 +902,16 @@
         <v>0.1812158123272994</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1638805898983191</v>
+        <v>0.1782720601317145</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1959544743523648</v>
+        <v>0.1750134770157158</v>
       </c>
       <c r="K11" t="n">
-        <v>0.183738325489277</v>
+        <v>0.1987492796287444</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1894811733500394</v>
+        <v>0.1876064711680789</v>
       </c>
     </row>
     <row r="12">
@@ -948,12 +948,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.024565359283213666</t>
+          <t>0.02456535928321367</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.02456535928321366</t>
+          <t>0.02456535928321367</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -990,16 +990,16 @@
         <v>0.1798624034286359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1524786006462795</v>
+        <v>0.1670087583549933</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1848406948301592</v>
+        <v>0.1640571940372196</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1728606744818295</v>
+        <v>0.1880272512072206</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1789657226178987</v>
+        <v>0.1771700798601461</v>
       </c>
     </row>
     <row r="14">
@@ -1078,16 +1078,16 @@
         <v>0.140049624992951</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1100588708579627</v>
+        <v>0.1205467212450405</v>
       </c>
       <c r="J15" t="n">
-        <v>0.133417791581136</v>
+        <v>0.1184162856645592</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1247706272787086</v>
+        <v>0.1357178441478447</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1291772436926932</v>
+        <v>0.1278811509062635</v>
       </c>
     </row>
     <row r="16">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5.278979468388568</t>
+          <t>4.949845807875595</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.096516681026058</t>
+          <t>5.256391981537008</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.444996472338829</t>
+          <t>4.340162377070723</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.267616880272932</t>
+          <t>5.052467658022843</t>
         </is>
       </c>
     </row>
@@ -1167,22 +1167,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5.195899675571253</t>
+          <t>3.986152214215296</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.8809166587676187</t>
+          <t>5.520739866012184</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.124106588089832</t>
+          <t>3.8219307327749013</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.82882380652686</t>
+          <t>4.7607051212271765</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1215,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5.5591097982557285</t>
+          <t>5.480925416683586</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.516759274643206</t>
+          <t>5.877489944084561</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.141724405691164</t>
+          <t>7.86709105754546</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.137489379146446</t>
+          <t>4.835143108022229</t>
         </is>
       </c>
     </row>
@@ -1263,22 +1263,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.039380959966773925</t>
+          <t>0.04970732253553811</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.0541755860797116</t>
+          <t>0.04213906732857678</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.07354922652228044</t>
+          <t>0.04534873148335779</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.038274274962721844</t>
+          <t>0.035105021637693204</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.2654075450351007</t>
+          <t>0.14755406623238806</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.4059127143951132</t>
+          <t>0.39919290443535144</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.3302061870038986</t>
+          <t>0.19771527242340034</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.24811915449530003</t>
+          <t>0.17297541493908886</t>
         </is>
       </c>
     </row>
@@ -1337,44 +1337,44 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1793292962190219</v>
+        <v>1.467874622513798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1719050673508659</v>
+        <v>1.327048516878541</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1640830582268791</v>
+        <v>1.315496739547372</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2036557792366994</v>
+        <v>1.589623644482245</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2268897263841652</v>
+        <v>1.841810720059694</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2232786694580135</v>
+        <v>1.978741222701797</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2583319235323972</v>
+        <v>2.125260960334029</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.16902829877383468</t>
+          <t>1.5008617507550592</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.2031359187453082</t>
+          <t>2.1804217382695628</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.15071338748901603</t>
+          <t>1.3161471261079063</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.21622486031017008</t>
+          <t>2.0906059278914886</t>
         </is>
       </c>
     </row>
@@ -1385,44 +1385,322 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.154852170373009</v>
+        <v>1.267520566489639</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2805299254946464</v>
+        <v>2.1655953911346</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2568058944548108</v>
+        <v>2.058879938626774</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2932523359394154</v>
+        <v>2.288964490750585</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3449152802034501</v>
+        <v>2.79990050988683</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3333914863921842</v>
+        <v>2.954583521226567</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2789996052557379</v>
+        <v>2.295291115750406</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.3933055462031383</t>
+          <t>1.4217612051152102</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.28896842486431557</t>
+          <t>1.5432242482087668</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.32936345984789916</t>
+          <t>1.606478358448444</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.2750138476072178</t>
+          <t>2.466657540111212</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>POR_Stock_Comp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.004681695588010788</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.004342033848127498</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.004186402564470599</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.004167915225149146</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.005147531942274106</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.006309606885322168</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.005300851519765409</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.005605537858574526</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.0051613631127307375</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.0039731157928334405</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.0046668621914025404</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>POR_Other_CFO</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.001781079843264974</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.07615828687028174</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.04030907612075977</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.01563649241330464</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00530073229769893</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.02942544777855315</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.03059268031353973</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.02929060808087745</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-0.01692978011022071</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-0.055753848044843665</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-0.007676863404583097</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>POR_CS_Issue</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01040659508421963</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01282873636946761</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.006387254198363715</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01356615543872075</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01204154793639121</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.006658525238427541</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.009022725991090058</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.013367055554971963</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.00841502235150273</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.011673988519590346</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.008589492182524696</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>POR_CS_Repo</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.05289807134496972</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.0712734987911383</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.09568920147361371</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.1198616143180147</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1137972240095597</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.09827866945801349</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.118423278633057</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-0.1292833083372764</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-0.1344070212536192</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-0.08715106457743244</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-0.14293192021656334</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.468912455812019</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.743042071197411</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.01589948263119</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-3.343190623473872</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.644745762711864</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-3.748044027426922</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-3.980493354812726</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-4.21687440655342</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-4.509972680618728</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-4.835928435276404</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-5.06704732479894</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DPS_Gr</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0.111032537723267</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.09947255796724597</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1085218995949893</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09019980407956796</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02834169279291476</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.06201883587407675</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.05938486279719364</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.0695060477992434</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.07227444105336749</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.04779204089055676</t>
         </is>
       </c>
     </row>

--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.06747972680192592</t>
+          <t>0.059420862120145426</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.058862832658880676</t>
+          <t>0.05140677890322437</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.052503409261363244</t>
+          <t>0.057463908491838224</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.05819041738835165</t>
+          <t>0.05593933995771382</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.32944737439193755</t>
+          <t>0.32072461442446526</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3210140477356746</t>
+          <t>0.3224503755449868</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.34435869745483993</t>
+          <t>0.3291080632269703</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.32729796577847525</t>
+          <t>0.3222291570738604</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.12960313529340733</t>
+          <t>0.11422301098852904</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.12551409132189856</t>
+          <t>0.1236216503037234</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.12197675848889541</t>
+          <t>0.11837115229198655</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.11718039102671929</t>
+          <t>0.12206519701613998</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.022279361124287075</t>
+          <t>-0.02940288035972289</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.02486359393980928</t>
+          <t>-0.027842878142458546</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.027156367759037594</t>
+          <t>-0.018710524540081562</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.021835442987779702</t>
+          <t>-0.02494045884860362</t>
         </is>
       </c>
     </row>
@@ -684,16 +684,16 @@
         <v>-454</v>
       </c>
       <c r="I6" t="n">
-        <v>-671.4553535392296</v>
+        <v>-382.9733772856831</v>
       </c>
       <c r="J6" t="n">
-        <v>-1052.409261160141</v>
+        <v>-1641.273643285145</v>
       </c>
       <c r="K6" t="n">
-        <v>-331.3742931089296</v>
+        <v>-895.4904521332404</v>
       </c>
       <c r="L6" t="n">
-        <v>-826.8126821967937</v>
+        <v>-1603.92123149668</v>
       </c>
     </row>
     <row r="7">
@@ -723,22 +723,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.04548539178561371</t>
+          <t>-0.02594319044070472</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.07047057407028598</t>
+          <t>-0.10599945377859896</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-0.022272262119733384</t>
+          <t>-0.0599292872331878</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.05268752334420541</t>
+          <t>-0.10816408007787845</t>
         </is>
       </c>
     </row>
@@ -768,16 +768,16 @@
         <v>-133</v>
       </c>
       <c r="I8" t="n">
-        <v>-144.9124082704067</v>
+        <v>-4.425390947985487</v>
       </c>
       <c r="J8" t="n">
-        <v>-102.7190359280387</v>
+        <v>-99.43482549227444</v>
       </c>
       <c r="K8" t="n">
-        <v>-6.821008119430902</v>
+        <v>-7.089604374494836</v>
       </c>
       <c r="L8" t="n">
-        <v>-52.77042202562645</v>
+        <v>-21.70519599804748</v>
       </c>
     </row>
     <row r="9">
@@ -807,22 +807,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.018285477384278447</t>
+          <t>-0.0005584089524271908</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.013202812271320875</t>
+          <t>-0.012553991395855994</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.0008884565160384899</t>
+          <t>-0.0009064669051686543</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.006879616050561156</t>
+          <t>-0.002777713925598394</t>
         </is>
       </c>
     </row>
@@ -855,22 +855,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20.858888511476998</t>
+          <t>19.78333438792691</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20.598654853166334</t>
+          <t>21.127480015404636</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17.573082250483843</t>
+          <t>19.788862564462633</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>17.505244314597906</t>
+          <t>21.395247525582533</t>
         </is>
       </c>
     </row>
@@ -902,16 +902,16 @@
         <v>0.1812158123272994</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1782720601317145</v>
+        <v>0.1828871466626528</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1750134770157158</v>
+        <v>0.1783735674131172</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1987492796287444</v>
+        <v>0.1901945423979345</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1876064711680789</v>
+        <v>0.1825880484720669</v>
       </c>
     </row>
     <row r="12">
@@ -948,17 +948,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.02456535928321367</t>
+          <t>0.024565359283213663</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.02456535928321367</t>
+          <t>0.024565359283213666</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.024565359283213663</t>
+          <t>0.02456535928321366</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
         <v>0.1798624034286359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1670087583549933</v>
+        <v>0.1715381665420986</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1640571940372196</v>
+        <v>0.1672556540053639</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1880272512072206</v>
+        <v>0.1793653777162595</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1771700798601461</v>
+        <v>0.1720249041700732</v>
       </c>
     </row>
     <row r="14">
@@ -1078,16 +1078,16 @@
         <v>0.140049624992951</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1205467212450405</v>
+        <v>0.1238160426358109</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1184162856645592</v>
+        <v>0.1207249302290183</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1357178441478447</v>
+        <v>0.1294657142628045</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1278811509062635</v>
+        <v>0.1241673692712333</v>
       </c>
     </row>
     <row r="16">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.949845807875595</t>
+          <t>4.849891624277925</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.256391981537008</t>
+          <t>5.07570101913157</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.340162377070723</t>
+          <t>4.490350472798435</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5.052467658022843</t>
+          <t>5.009135533323108</t>
         </is>
       </c>
     </row>
@@ -1167,22 +1167,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.986152214215296</t>
+          <t>3.361334084582051</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.520739866012184</t>
+          <t>4.184278354750085</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.8219307327749013</t>
+          <t>4.323424939242515</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.7607051212271765</t>
+          <t>4.087093283386037</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1215,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5.480925416683586</t>
+          <t>6.448531740222425</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.877489944084561</t>
+          <t>4.050817737880799</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>7.86709105754546</t>
+          <t>5.867100518120808</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.835143108022229</t>
+          <t>4.489770981877258</t>
         </is>
       </c>
     </row>
@@ -1263,22 +1263,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.04970732253553811</t>
+          <t>0.05565516124052426</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.04213906732857678</t>
+          <t>0.03435853750239653</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.04534873148335779</t>
+          <t>0.04046316551331956</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.035105021637693204</t>
+          <t>0.04380493996533606</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.14755406623238806</t>
+          <t>0.4300521660670977</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.39919290443535144</t>
+          <t>0.27913973294311045</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.19771527242340034</t>
+          <t>0.24628885680331025</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.17297541493908886</t>
+          <t>0.24658089021007812</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.5008617507550592</t>
+          <t>1.2656407066509536</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.1804217382695628</t>
+          <t>1.712737463374582</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.3161471261079063</t>
+          <t>1.1751699550659533</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.0906059278914886</t>
+          <t>1.6537539279190907</t>
         </is>
       </c>
     </row>
@@ -1407,22 +1407,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.4217612051152102</t>
+          <t>2.4840853135369065</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.5432242482087668</t>
+          <t>1.2402596698303483</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.606478358448444</t>
+          <t>2.469690606183969</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.466657540111212</t>
+          <t>1.4859249906820922</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.005605537858574526</t>
+          <t>0.00448583428911871</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.0051613631127307375</t>
+          <t>0.004090125743310946</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.0039731157928334405</t>
+          <t>0.0049505818968898375</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.0046668621914025404</t>
+          <t>0.005166556748332184</t>
         </is>
       </c>
     </row>
@@ -1503,22 +1503,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.02929060808087745</t>
+          <t>-0.011975038831485943</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.01692978011022071</t>
+          <t>-0.033608028396262944</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-0.055753848044843665</t>
+          <t>-0.00629641756115101</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0.007676863404583097</t>
+          <t>0.021986004784678218</t>
         </is>
       </c>
     </row>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.013367055554971963</t>
+          <t>0.007939570868700056</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.00841502235150273</t>
+          <t>0.008199119066347307</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.011673988519590346</t>
+          <t>0.009499115817582731</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.008589492182524696</t>
+          <t>0.010010654344743342</t>
         </is>
       </c>
     </row>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-0.1292833083372764</t>
+          <t>-0.06416183514777948</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.1344070212536192</t>
+          <t>-0.04952550736285092</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-0.08715106457743244</t>
+          <t>-0.1038753286678429</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0.14293192021656334</t>
+          <t>-0.0866902215393392</t>
         </is>
       </c>
     </row>
@@ -1646,16 +1646,16 @@
         <v>-3.980493354812726</v>
       </c>
       <c r="I27" t="n">
-        <v>-4.21687440655342</v>
+        <v>-4.563894717597075</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.509972680618728</v>
+        <v>-4.884167051534985</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.835928435276404</v>
+        <v>-5.21763127960215</v>
       </c>
       <c r="L27" t="n">
-        <v>-5.06704732479894</v>
+        <v>-5.807429155600411</v>
       </c>
     </row>
     <row r="28">
@@ -1685,22 +1685,118 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.05938486279719364</t>
+          <t>0.1465650889930442</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.0695060477992434</t>
+          <t>0.07017522396014796</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.07227444105336749</t>
+          <t>0.06827453372266701</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.04779204089055676</t>
+          <t>0.11303939362369696</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ST_Inv as % of Cash</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1938033915593523</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5323700240827313</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1747604177883062</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.148781294805338</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.06619964973730298</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.05146454968519026</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05017139295730758</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-0.08381321809048017</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.11941542436873784</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.07998094235809818</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.46593496455472416</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>LT_Inv as % of Cash</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.07484380976667092</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.09448930443405582</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.07989662969742652</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.06485055696481747</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.04798598949211909</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1115065243179122</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.09816142100342785</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.13159841618113144</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.06343997372161839</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.10417936650859023</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.0942999186010097</t>
         </is>
       </c>
     </row>

--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.059420862120145426</t>
+          <t>0.067062119430083</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.05140677890322437</t>
+          <t>0.059897167201580795</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.057463908491838224</t>
+          <t>0.0718849819191579</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.05593933995771382</t>
+          <t>0.053459549424318645</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.32072461442446526</t>
+          <t>0.3255029754516207</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3224503755449868</t>
+          <t>0.3350389679254382</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3291080632269703</t>
+          <t>0.3058973446310153</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3222291570738604</t>
+          <t>0.3372378468774819</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.11422301098852904</t>
+          <t>0.12426772978469562</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1236216503037234</t>
+          <t>0.12100587493314978</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.11837115229198655</t>
+          <t>0.12188379386021833</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.12206519701613998</t>
+          <t>0.12426772978469562</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.02940288035972289</t>
+          <t>-0.02358188735868072</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.027842878142458546</t>
+          <t>-0.02735698158995839</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.018710524540081562</t>
+          <t>-0.01785278813792624</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.02494045884860362</t>
+          <t>-0.02272968473030121</t>
         </is>
       </c>
     </row>
@@ -684,16 +684,16 @@
         <v>-454</v>
       </c>
       <c r="I6" t="n">
-        <v>-382.9733772856831</v>
+        <v>-662.8808453402735</v>
       </c>
       <c r="J6" t="n">
-        <v>-1641.273643285145</v>
+        <v>-1771.718890188202</v>
       </c>
       <c r="K6" t="n">
-        <v>-895.4904521332404</v>
+        <v>-2278.103660856558</v>
       </c>
       <c r="L6" t="n">
-        <v>-1603.92123149668</v>
+        <v>-1450.815994012088</v>
       </c>
     </row>
     <row r="7">
@@ -723,22 +723,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.02594319044070472</t>
+          <t>-0.04490454175181367</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.10599945377859896</t>
+          <t>-0.11818107248563194</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-0.0599292872331878</t>
+          <t>-0.15911695714321206</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.10816408007787845</t>
+          <t>-0.11328628320843032</t>
         </is>
       </c>
     </row>
@@ -768,16 +768,16 @@
         <v>-133</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.425390947985487</v>
+        <v>-150.1698426543594</v>
       </c>
       <c r="J8" t="n">
-        <v>-99.43482549227444</v>
+        <v>-28.0222052936237</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.089604374494836</v>
+        <v>-2.863821702765315</v>
       </c>
       <c r="L8" t="n">
-        <v>-21.70519599804748</v>
+        <v>-41.78188796340414</v>
       </c>
     </row>
     <row r="9">
@@ -807,22 +807,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.0005584089524271908</t>
+          <t>-0.018948876044714125</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.012553991395855994</t>
+          <t>-0.0036042208931275996</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.0009064669051686543</t>
+          <t>-0.0003696776427775947</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.002777713925598394</t>
+          <t>-0.005395427350729063</t>
         </is>
       </c>
     </row>
@@ -855,22 +855,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>19.78333438792691</t>
+          <t>22.14650702645101</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21.127480015404636</t>
+          <t>20.000471638204278</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>19.788862564462633</t>
+          <t>19.16166337619014</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21.395247525582533</t>
+          <t>21.003302915117867</t>
         </is>
       </c>
     </row>
@@ -902,16 +902,16 @@
         <v>0.1812158123272994</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1828871466626528</v>
+        <v>0.1808625579957874</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1783735674131172</v>
+        <v>0.1934059494718847</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1901945423979345</v>
+        <v>0.165305080586845</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1825880484720669</v>
+        <v>0.1971333190891461</v>
       </c>
     </row>
     <row r="12">
@@ -943,22 +943,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.024565359283213663</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>0.024565359283213666</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>0.024565359283213663</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>0.024565359283213666</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.02456535928321366</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
         <v>0.1798624034286359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1715381665420986</v>
+        <v>0.1695948481927971</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1672556540053639</v>
+        <v>0.1824560748461016</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1793653777162595</v>
+        <v>0.1547830833065367</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1720249041700732</v>
+        <v>0.1868456367527527</v>
       </c>
     </row>
     <row r="14">
@@ -1078,16 +1078,16 @@
         <v>0.140049624992951</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1238160426358109</v>
+        <v>0.1224133577847226</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1207249302290183</v>
+        <v>0.1316965757399732</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1294657142628045</v>
+        <v>0.1117222436750312</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1241673692712333</v>
+        <v>0.1348649562534321</v>
       </c>
     </row>
     <row r="16">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.849891624277925</t>
+          <t>4.747076384987374</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.07570101913157</t>
+          <t>5.106328457679016</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.490350472798435</t>
+          <t>5.658423598585986</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5.009135533323108</t>
+          <t>4.747076384987374</t>
         </is>
       </c>
     </row>
@@ -1167,22 +1167,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.361334084582051</t>
+          <t>4.896799783646153</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.184278354750085</t>
+          <t>4.363525496920707</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.323424939242515</t>
+          <t>3.949692140222414</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.087093283386037</t>
+          <t>3.2552305660890433</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1215,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.448531740222425</t>
+          <t>5.88928027688461</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.050817737880799</t>
+          <t>5.520904053032143</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.867100518120808</t>
+          <t>7.090488144430626</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.489770981877258</t>
+          <t>6.3792156278098675</t>
         </is>
       </c>
     </row>
@@ -1263,22 +1263,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.05565516124052426</t>
+          <t>0.04844133419373696</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.03435853750239653</t>
+          <t>0.04429374987474114</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.04046316551331956</t>
+          <t>0.05000281873944644</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.04380493996533606</t>
+          <t>0.044871531538811314</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.4300521660670977</t>
+          <t>0.05533737775812908</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.27913973294311045</t>
+          <t>0.16026329911795273</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.24628885680331025</t>
+          <t>0.26327794314778347</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.24658089021007812</t>
+          <t>0.37918493123743424</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.2656407066509536</t>
+          <t>1.4693403863712287</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.712737463374582</t>
+          <t>1.2151707045628142</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.1751699550659533</t>
+          <t>1.4722728418842181</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.6537539279190907</t>
+          <t>2.1549353445481474</t>
         </is>
       </c>
     </row>
@@ -1407,22 +1407,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.4840853135369065</t>
+          <t>1.1499429790377047</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.2402596698303483</t>
+          <t>2.344748623104678</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.469690606183969</t>
+          <t>2.1994310418921112</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.4859249906820922</t>
+          <t>2.4457513500576074</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.00448583428911871</t>
+          <t>0.004893799297982106</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.004090125743310946</t>
+          <t>0.005888205818832308</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.0049505818968898375</t>
+          <t>0.005572039899068633</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.005166556748332184</t>
+          <t>0.004448013249591325</t>
         </is>
       </c>
     </row>
@@ -1503,22 +1503,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-0.011975038831485943</t>
+          <t>0.05618720443692198</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.033608028396262944</t>
+          <t>0.033394747214536884</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-0.00629641756115101</t>
+          <t>-0.004011615652133981</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.021986004784678218</t>
+          <t>-0.014876009688527227</t>
         </is>
       </c>
     </row>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.007939570868700056</t>
+          <t>0.01223064304685851</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.008199119066347307</t>
+          <t>0.006308337357709321</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.009499115817582731</t>
+          <t>0.01137133597368869</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.010010654344743342</t>
+          <t>0.01094294109635419</t>
         </is>
       </c>
     </row>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-0.06416183514777948</t>
+          <t>-0.1299265010432843</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.04952550736285092</t>
+          <t>-0.060746952679430956</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-0.1038753286678429</t>
+          <t>-0.10753567790202984</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0.0866902215393392</t>
+          <t>-0.10736235704624486</t>
         </is>
       </c>
     </row>
@@ -1646,16 +1646,16 @@
         <v>-3.980493354812726</v>
       </c>
       <c r="I27" t="n">
-        <v>-4.563894717597075</v>
+        <v>-4.415900729060415</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.884167051534985</v>
+        <v>-4.613808217367734</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.21763127960215</v>
+        <v>-5.072953092991141</v>
       </c>
       <c r="L27" t="n">
-        <v>-5.807429155600411</v>
+        <v>-5.559607420867203</v>
       </c>
     </row>
     <row r="28">
@@ -1685,22 +1685,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.1465650889930442</t>
+          <t>0.10938527851610366</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.07017522396014796</t>
+          <t>0.04481701479494717</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.06827453372266701</t>
+          <t>0.0995153794852267</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.11303939362369696</t>
+          <t>0.09593117045541583</t>
         </is>
       </c>
     </row>
@@ -1733,22 +1733,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-0.08381321809048017</t>
+          <t>0.1754585469276579</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.11941542436873784</t>
+          <t>0.15195701827921332</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.07998094235809818</t>
+          <t>0.36557235517037323</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.46593496455472416</t>
+          <t>0.16926374022290783</t>
         </is>
       </c>
     </row>
@@ -1781,22 +1781,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.13159841618113144</t>
+          <t>0.09881907336007892</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.06343997372161839</t>
+          <t>0.06331466539498823</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.10417936650859023</t>
+          <t>0.09035958094688076</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.0942999186010097</t>
+          <t>0.0955838919840692</t>
         </is>
       </c>
     </row>

--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.067062119430083</t>
+          <t>0.06953166378392378</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.059897167201580795</t>
+          <t>0.053383170260194436</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.0718849819191579</t>
+          <t>0.06465218415512544</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.053459549424318645</t>
+          <t>0.049137273312093006</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3255029754516207</t>
+          <t>0.33228342577841646</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3350389679254382</t>
+          <t>0.32806778472686937</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3058973446310153</t>
+          <t>0.31865765677631996</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3372378468774819</t>
+          <t>0.33785346267017435</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.12426772978469562</t>
+          <t>0.12080599685375859</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.12100587493314978</t>
+          <t>0.11068245092949078</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.12188379386021833</t>
+          <t>0.11875644465560553</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.12426772978469562</t>
+          <t>0.12073096277946493</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.02358188735868072</t>
+          <t>-0.026665117394267964</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.02735698158995839</t>
+          <t>-0.03169853535557936</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.01785278813792624</t>
+          <t>-0.027080668832484917</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.02272968473030121</t>
+          <t>-0.02718688396571446</t>
         </is>
       </c>
     </row>
@@ -684,16 +684,16 @@
         <v>-454</v>
       </c>
       <c r="I6" t="n">
-        <v>-662.8808453402735</v>
+        <v>-342.8925354644641</v>
       </c>
       <c r="J6" t="n">
-        <v>-1771.718890188202</v>
+        <v>-1802.218474021922</v>
       </c>
       <c r="K6" t="n">
-        <v>-2278.103660856558</v>
+        <v>-1905.366136237788</v>
       </c>
       <c r="L6" t="n">
-        <v>-1450.815994012088</v>
+        <v>-749.1970236467129</v>
       </c>
     </row>
     <row r="7">
@@ -723,22 +723,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.04490454175181367</t>
+          <t>-0.023228054156920745</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.11818107248563194</t>
+          <t>-0.11679533517156351</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-0.15911695714321206</t>
+          <t>-0.12792047499838216</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.11328628320843032</t>
+          <t>-0.05297831428490991</t>
         </is>
       </c>
     </row>
@@ -768,16 +768,16 @@
         <v>-133</v>
       </c>
       <c r="I8" t="n">
-        <v>-150.1698426543594</v>
+        <v>-6.477777150909765</v>
       </c>
       <c r="J8" t="n">
-        <v>-28.0222052936237</v>
+        <v>-95.56421463918487</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.863821702765315</v>
+        <v>-82.01098558113308</v>
       </c>
       <c r="L8" t="n">
-        <v>-41.78188796340414</v>
+        <v>-93.39217448832657</v>
       </c>
     </row>
     <row r="9">
@@ -807,22 +807,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.018948876044714125</t>
+          <t>-0.0008173851294523363</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.0036042208931275996</t>
+          <t>-0.012068440543543842</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.0003696776427775947</t>
+          <t>-0.010483372848871946</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.005395427350729063</t>
+          <t>-0.012064696246507993</t>
         </is>
       </c>
     </row>
@@ -855,22 +855,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>22.14650702645101</t>
+          <t>20.01632100460163</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20.000471638204278</t>
+          <t>18.239529285737618</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>19.16166337619014</t>
+          <t>17.978239009192823</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21.003302915117867</t>
+          <t>19.233194332889646</t>
         </is>
       </c>
     </row>
@@ -902,16 +902,16 @@
         <v>0.1812158123272994</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1808625579957874</v>
+        <v>0.188413083633534</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1934059494718847</v>
+        <v>0.1940064752965937</v>
       </c>
       <c r="K11" t="n">
-        <v>0.165305080586845</v>
+        <v>0.1784421079142888</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1971333190891461</v>
+        <v>0.1976791083718603</v>
       </c>
     </row>
     <row r="12">
@@ -953,12 +953,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.024565359283213663</t>
+          <t>0.024565359283213666</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.024565359283213666</t>
+          <t>0.02456535928321367</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
         <v>0.1798624034286359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1695948481927971</v>
+        <v>0.1771713909276217</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1824560748461016</v>
+        <v>0.1830143275065075</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1547830833065367</v>
+        <v>0.1678077313617497</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1868456367527527</v>
+        <v>0.1872387130797021</v>
       </c>
     </row>
     <row r="14">
@@ -1078,16 +1078,16 @@
         <v>0.140049624992951</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1224133577847226</v>
+        <v>0.1278820972331932</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1316965757399732</v>
+        <v>0.1320995218399329</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1117222436750312</v>
+        <v>0.1211234190019513</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1348649562534321</v>
+        <v>0.1351486782742381</v>
       </c>
     </row>
     <row r="16">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.747076384987374</t>
+          <t>4.722944097027008</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.106328457679016</t>
+          <t>4.175577040327095</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5.658423598585986</t>
+          <t>5.102638104237115</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.747076384987374</t>
+          <t>5.079385777294844</t>
         </is>
       </c>
     </row>
@@ -1167,22 +1167,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.896799783646153</t>
+          <t>4.414204158537789</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.363525496920707</t>
+          <t>3.56966806178904</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.949692140222414</t>
+          <t>4.043104998395603</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3.2552305660890433</t>
+          <t>3.657148153772794</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1215,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5.88928027688461</t>
+          <t>3.5376530117709404</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.520904053032143</t>
+          <t>5.143307916466978</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>7.090488144430626</t>
+          <t>6.283393944624116</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.3792156278098675</t>
+          <t>6.55989488464389</t>
         </is>
       </c>
     </row>
@@ -1263,22 +1263,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.04844133419373696</t>
+          <t>0.05948821843225228</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.04429374987474114</t>
+          <t>0.031224784728212024</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.05000281873944644</t>
+          <t>0.048784787291014986</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.044871531538811314</t>
+          <t>0.05243548739994419</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.05533737775812908</t>
+          <t>0.32979060239663516</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.16026329911795273</t>
+          <t>0.17163201196520855</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.26327794314778347</t>
+          <t>0.11158355973921989</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.37918493123743424</t>
+          <t>0.3013213185407966</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.4693403863712287</t>
+          <t>1.5341754602814133</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.2151707045628142</t>
+          <t>1.5303899515471626</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.4722728418842181</t>
+          <t>1.281407083847995</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.1549353445481474</t>
+          <t>1.7762073847141464</t>
         </is>
       </c>
     </row>
@@ -1407,22 +1407,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.1499429790377047</t>
+          <t>1.2530221213346195</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2.344748623104678</t>
+          <t>1.9618190317789475</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.1994310418921112</t>
+          <t>1.6963192921676769</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.4457513500576074</t>
+          <t>2.452560453666734</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.004893799297982106</t>
+          <t>0.004243467871247724</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.005888205818832308</t>
+          <t>0.005503025979373231</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.005572039899068633</t>
+          <t>0.0043988626484314005</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.004448013249591325</t>
+          <t>0.005126817003669287</t>
         </is>
       </c>
     </row>
@@ -1503,22 +1503,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.05618720443692198</t>
+          <t>-0.03276026973957084</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.033394747214536884</t>
+          <t>-0.0114243660632067</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-0.004011615652133981</t>
+          <t>0.10119038356464603</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0.014876009688527227</t>
+          <t>-0.0026404819508404932</t>
         </is>
       </c>
     </row>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.01223064304685851</t>
+          <t>0.011275587077690498</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.006308337357709321</t>
+          <t>0.010554387472064029</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.01137133597368869</t>
+          <t>0.016753019895226262</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.01094294109635419</t>
+          <t>0.009856678653141548</t>
         </is>
       </c>
     </row>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-0.1299265010432843</t>
+          <t>-0.08888108702396698</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.060746952679430956</t>
+          <t>-0.0676435585220436</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-0.10753567790202984</t>
+          <t>-0.056521783580815804</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0.10736235704624486</t>
+          <t>-0.12825147384423904</t>
         </is>
       </c>
     </row>
@@ -1646,16 +1646,16 @@
         <v>-3.980493354812726</v>
       </c>
       <c r="I27" t="n">
-        <v>-4.415900729060415</v>
+        <v>-4.206049166432828</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.613808217367734</v>
+        <v>-4.540014874357584</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.072953092991141</v>
+        <v>-4.948305897913482</v>
       </c>
       <c r="L27" t="n">
-        <v>-5.559607420867203</v>
+        <v>-5.459455709842067</v>
       </c>
     </row>
     <row r="28">
@@ -1685,22 +1685,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.10938527851610366</t>
+          <t>0.05666529033326667</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.04481701479494717</t>
+          <t>0.07940128484232489</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.0995153794852267</t>
+          <t>0.08993164887233361</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.09593117045541583</t>
+          <t>0.10329794124977558</t>
         </is>
       </c>
     </row>
@@ -1733,22 +1733,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.1754585469276579</t>
+          <t>0.10651327493866042</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.15195701827921332</t>
+          <t>0.2632471649375668</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.36557235517037323</t>
+          <t>0.09268878749388752</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.16926374022290783</t>
+          <t>0.37988262479279583</t>
         </is>
       </c>
     </row>
@@ -1781,22 +1781,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.09881907336007892</t>
+          <t>0.07657259697093212</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.06331466539498823</t>
+          <t>0.07083976656973488</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.09035958094688076</t>
+          <t>0.05427046042659882</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.0955838919840692</t>
+          <t>0.14284107188909345</t>
         </is>
       </c>
     </row>

--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.06953166378392378</t>
+          <t>0.07292060617835627</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.053383170260194436</t>
+          <t>0.052632202609149616</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.06465218415512544</t>
+          <t>0.060410469713076176</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.049137273312093006</t>
+          <t>0.05566640343037253</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.33228342577841646</t>
+          <t>0.3328953501462143</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.32806778472686937</t>
+          <t>0.33381730998770454</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.31865765677631996</t>
+          <t>0.3240455467368534</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.33785346267017435</t>
+          <t>0.33068677949329706</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.12080599685375859</t>
+          <t>0.13211566835033145</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.11068245092949078</t>
+          <t>0.11454438788011906</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.11875644465560553</t>
+          <t>0.11376973902655274</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.12073096277946493</t>
+          <t>0.11650037391096368</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.026665117394267964</t>
+          <t>-0.01830792594808126</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.03169853535557936</t>
+          <t>-0.017430330094460954</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.027080668832484917</t>
+          <t>-0.025966734884876334</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.02718688396571446</t>
+          <t>-0.028792845683373813</t>
         </is>
       </c>
     </row>
@@ -684,16 +684,16 @@
         <v>-454</v>
       </c>
       <c r="I6" t="n">
-        <v>-342.8925354644641</v>
+        <v>-467.2915527375355</v>
       </c>
       <c r="J6" t="n">
-        <v>-1802.218474021922</v>
+        <v>-189.7355566728332</v>
       </c>
       <c r="K6" t="n">
-        <v>-1905.366136237788</v>
+        <v>-1594.345677268222</v>
       </c>
       <c r="L6" t="n">
-        <v>-749.1970236467129</v>
+        <v>-1975.721779000169</v>
       </c>
     </row>
     <row r="7">
@@ -723,22 +723,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.023228054156920745</t>
+          <t>-0.031655029991704074</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.11679533517156351</t>
+          <t>-0.01265632264126286</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-0.12792047499838216</t>
+          <t>-0.10286233072980659</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.05297831428490991</t>
+          <t>-0.13164119661383972</t>
         </is>
       </c>
     </row>
@@ -768,16 +768,16 @@
         <v>-133</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.477777150909765</v>
+        <v>-81.56707485072319</v>
       </c>
       <c r="J8" t="n">
-        <v>-95.56421463918487</v>
+        <v>-106.8735021810456</v>
       </c>
       <c r="K8" t="n">
-        <v>-82.01098558113308</v>
+        <v>-75.66059049425581</v>
       </c>
       <c r="L8" t="n">
-        <v>-93.39217448832657</v>
+        <v>-17.78143393130447</v>
       </c>
     </row>
     <row r="9">
@@ -807,22 +807,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.0008173851294523363</t>
+          <t>-0.010292375375485576</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.012068440543543842</t>
+          <t>-0.01362585786108594</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.010483372848871946</t>
+          <t>-0.009779617315370873</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.012064696246507993</t>
+          <t>-0.0023210636663064006</t>
         </is>
       </c>
     </row>
@@ -855,22 +855,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20.01632100460163</t>
+          <t>19.72722906808673</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>18.239529285737618</t>
+          <t>20.448002447017096</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17.978239009192823</t>
+          <t>16.799607272378836</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>19.233194332889646</t>
+          <t>22.02132612844052</t>
         </is>
       </c>
     </row>
@@ -902,16 +902,16 @@
         <v>0.1812158123272994</v>
       </c>
       <c r="I11" t="n">
-        <v>0.188413083633534</v>
+        <v>0.1779650975402307</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1940064752965937</v>
+        <v>0.1979953517674149</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1784421079142888</v>
+        <v>0.1864488012874286</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1976791083718603</v>
+        <v>0.1975013381593426</v>
       </c>
     </row>
     <row r="12">
@@ -943,22 +943,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.02456535928321367</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.024565359283213666</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>0.024565359283213663</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.024565359283213666</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.024565359283213666</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.02456535928321367</t>
+          <t>0.024565359283213663</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
         <v>0.1798624034286359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1771713909276217</v>
+        <v>0.1667589130059174</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1830143275065075</v>
+        <v>0.1870301066972634</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1678077313617497</v>
+        <v>0.175798017704245</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1872387130797021</v>
+        <v>0.1871095069378211</v>
       </c>
     </row>
     <row r="14">
@@ -1078,16 +1078,16 @@
         <v>0.140049624992951</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1278820972331932</v>
+        <v>0.1203663831720791</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1320995218399329</v>
+        <v>0.1349981064378778</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1211234190019513</v>
+        <v>0.1268907980896363</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1351486782742381</v>
+        <v>0.1350554174361726</v>
       </c>
     </row>
     <row r="16">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.722944097027008</t>
+          <t>5.016008045671823</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4.175577040327095</t>
+          <t>5.853233482204991</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5.102638104237115</t>
+          <t>4.596700471104187</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5.079385777294844</t>
+          <t>4.551348559672938</t>
         </is>
       </c>
     </row>
@@ -1167,22 +1167,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.414204158537789</t>
+          <t>4.106585765348297</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.56966806178904</t>
+          <t>4.217837080474101</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.043104998395603</t>
+          <t>5.380727952459286</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3.657148153772794</t>
+          <t>4.905125354533625</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1215,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.5376530117709404</t>
+          <t>7.428647619056981</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.143307916466978</t>
+          <t>5.4609612530494545</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6.283393944624116</t>
+          <t>5.674975333282933</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.55989488464389</t>
+          <t>3.8538358276524445</t>
         </is>
       </c>
     </row>
@@ -1263,22 +1263,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.05948821843225228</t>
+          <t>0.054456412844011134</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.031224784728212024</t>
+          <t>0.04812151198076547</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.048784787291014986</t>
+          <t>0.04452377317958489</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.05243548739994419</t>
+          <t>0.040587172682692726</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.32979060239663516</t>
+          <t>0.13506856502859182</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.17163201196520855</t>
+          <t>0.24205843680188616</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.11158355973921989</t>
+          <t>0.22188983699285156</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.3013213185407966</t>
+          <t>0.24533035471763232</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.5341754602814133</t>
+          <t>1.7152268858646094</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.5303899515471626</t>
+          <t>1.6563553620839642</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.281407083847995</t>
+          <t>1.6571596624030298</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.7762073847141464</t>
+          <t>1.8407056514789235</t>
         </is>
       </c>
     </row>
@@ -1407,22 +1407,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.2530221213346195</t>
+          <t>1.4548932867429354</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.9618190317789475</t>
+          <t>1.5051526400001585</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.6963192921676769</t>
+          <t>2.5963726267629275</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.452560453666734</t>
+          <t>2.5478874138903147</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.004243467871247724</t>
+          <t>0.0039725085929154975</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.005503025979373231</t>
+          <t>0.005688615918757952</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.0043988626484314005</t>
+          <t>0.0041725523117832055</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.005126817003669287</t>
+          <t>0.004213565766518978</t>
         </is>
       </c>
     </row>
@@ -1503,22 +1503,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-0.03276026973957084</t>
+          <t>-0.0015554648980760388</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.0114243660632067</t>
+          <t>-0.047099922859607346</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.10119038356464603</t>
+          <t>-0.017016748942769604</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0.0026404819508404932</t>
+          <t>-0.038768308438501674</t>
         </is>
       </c>
     </row>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.011275587077690498</t>
+          <t>0.008761160158131902</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.010554387472064029</t>
+          <t>0.013725367493041702</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.016753019895226262</t>
+          <t>0.009425408530085014</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.009856678653141548</t>
+          <t>0.009034556322610686</t>
         </is>
       </c>
     </row>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-0.08888108702396698</t>
+          <t>-0.07467700350562916</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.0676435585220436</t>
+          <t>-0.08195968092913802</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-0.056521783580815804</t>
+          <t>-0.09533339752862174</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0.12825147384423904</t>
+          <t>-0.06624456896942267</t>
         </is>
       </c>
     </row>
@@ -1646,16 +1646,16 @@
         <v>-3.980493354812726</v>
       </c>
       <c r="I27" t="n">
-        <v>-4.206049166432828</v>
+        <v>-4.475634179532763</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.540014874357584</v>
+        <v>-4.757856828643728</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.948305897913482</v>
+        <v>-5.218649396864617</v>
       </c>
       <c r="L27" t="n">
-        <v>-5.459455709842067</v>
+        <v>-5.643081557602617</v>
       </c>
     </row>
     <row r="28">
@@ -1685,22 +1685,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.05666529033326667</t>
+          <t>0.12439182296872153</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.07940128484232489</t>
+          <t>0.06305757749406309</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.08993164887233361</t>
+          <t>0.09684876716902857</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.10329794124977558</t>
+          <t>0.08132988604158792</t>
         </is>
       </c>
     </row>
@@ -1733,22 +1733,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.10651327493866042</t>
+          <t>-0.0022245002200646513</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.2632471649375668</t>
+          <t>-0.18213535125556254</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.09268878749388752</t>
+          <t>0.5114849744212723</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.37988262479279583</t>
+          <t>0.004810120505340354</t>
         </is>
       </c>
     </row>
@@ -1781,23 +1781,143 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.07657259697093212</t>
+          <t>0.10226588097954371</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.07083976656973488</t>
+          <t>0.0576627500259064</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.05427046042659882</t>
+          <t>0.07588852382272786</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.14284107188909345</t>
-        </is>
+          <t>0.0801872955381638</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Debt_to_Assets</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2291766704835076</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.234134857911552</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2185796133141779</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2127848122837812</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.290883473198526</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2490615790290057</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2706222400642312</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.3164541199065442</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3146295101344558</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3019175853889376</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3151942896662965</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Cost_Equity</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.07432000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Cost_Capital</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.06136738481965375</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05823327747017899</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.06297203176587864</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.06281394934271364</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.05848391243497333</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06055384725273989</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0593837591020667</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.05641225592017959</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.05651550831219695</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.05723486028388847</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.05648354814267629</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_Metr.xlsx
+++ b/FSV_OP_Metr.xlsx
@@ -495,22 +495,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.07292060617835627</t>
+          <t>0.05300406573823801</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.052632202609149616</t>
+          <t>0.053079083539327054</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.060410469713076176</t>
+          <t>0.06795453763635728</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.05566640343037253</t>
+          <t>0.05338375944243938</t>
         </is>
       </c>
     </row>
@@ -543,22 +543,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3328953501462143</t>
+          <t>0.33287902619229615</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.33381730998770454</t>
+          <t>0.31383137337012484</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3240455467368534</t>
+          <t>0.31862462158065974</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.33068677949329706</t>
+          <t>0.323384459983974</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.13211566835033145</t>
+          <t>0.12106777485472903</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.11454438788011906</t>
+          <t>0.11622250399656121</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.11376973902655274</t>
+          <t>0.12521445090893518</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.11650037391096368</t>
+          <t>0.10869828325549938</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.01830792594808126</t>
+          <t>-0.02109212705748844</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.017430330094460954</t>
+          <t>-0.02406949491954009</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.025966734884876334</t>
+          <t>-0.02785422351612717</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.028792845683373813</t>
+          <t>-0.02600783200782359</t>
         </is>
       </c>
     </row>
@@ -684,16 +684,16 @@
         <v>-454</v>
       </c>
       <c r="I6" t="n">
-        <v>-467.2915527375355</v>
+        <v>-307.5314387795564</v>
       </c>
       <c r="J6" t="n">
-        <v>-189.7355566728332</v>
+        <v>-1081.415514474885</v>
       </c>
       <c r="K6" t="n">
-        <v>-1594.345677268222</v>
+        <v>-180.3247602491543</v>
       </c>
       <c r="L6" t="n">
-        <v>-1975.721779000169</v>
+        <v>-2061.834829942784</v>
       </c>
     </row>
     <row r="7">
@@ -723,22 +723,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.031655029991704074</t>
+          <t>-0.02083264048093459</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.01265632264126286</t>
+          <t>-0.07094891252794927</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-0.10286233072980659</t>
+          <t>-0.011936215702010332</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.13164119661383972</t>
+          <t>-0.1280886586566276</t>
         </is>
       </c>
     </row>
@@ -768,16 +768,16 @@
         <v>-133</v>
       </c>
       <c r="I8" t="n">
-        <v>-81.56707485072319</v>
+        <v>-38.89417631344372</v>
       </c>
       <c r="J8" t="n">
-        <v>-106.8735021810456</v>
+        <v>-83.54376456958587</v>
       </c>
       <c r="K8" t="n">
-        <v>-75.66059049425581</v>
+        <v>-66.14443240105739</v>
       </c>
       <c r="L8" t="n">
-        <v>-17.78143393130447</v>
+        <v>-26.69096546357224</v>
       </c>
     </row>
     <row r="9">
@@ -807,22 +807,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.010292375375485576</t>
+          <t>-0.004907782500119081</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.01362585786108594</t>
+          <t>-0.010593791972541813</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.009779617315370873</t>
+          <t>-0.008477270914336445</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.0023210636663064006</t>
+          <t>-0.0034500419640482206</t>
         </is>
       </c>
     </row>
@@ -855,22 +855,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>19.72722906808673</t>
+          <t>20.012245892681214</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20.448002447017096</t>
+          <t>18.845550884130446</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>16.799607272378836</t>
+          <t>19.251809064023984</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>22.02132612844052</t>
+          <t>19.823701404687377</t>
         </is>
       </c>
     </row>
@@ -902,16 +902,16 @@
         <v>0.1812158123272994</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1779650975402307</v>
+        <v>0.1886017148603685</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1979953517674149</v>
+        <v>0.1744256963244338</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1864488012874286</v>
+        <v>0.1713037286890635</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1975013381593426</v>
+        <v>0.1951074808353081</v>
       </c>
     </row>
     <row r="12">
@@ -943,22 +943,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.02456535928321367</t>
+          <t>0.024565359283213663</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>0.024565359283213663</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.024565359283213663</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>0.024565359283213666</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.024565359283213663</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.024565359283213663</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
         <v>0.1798624034286359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1667589130059174</v>
+        <v>0.1771835763225342</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1870301066972634</v>
+        <v>0.1632577955676906</v>
       </c>
       <c r="K13" t="n">
-        <v>0.175798017704245</v>
+        <v>0.1605327291997929</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1871095069378211</v>
+        <v>0.1845755836283292</v>
       </c>
     </row>
     <row r="14">
@@ -1078,16 +1078,16 @@
         <v>0.140049624992951</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1203663831720791</v>
+        <v>0.1278908926366094</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1349981064378778</v>
+        <v>0.1178392808091301</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1268907980896363</v>
+        <v>0.1158723311769022</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1350554174361726</v>
+        <v>0.1332264346339871</v>
       </c>
     </row>
     <row r="16">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5.016008045671823</t>
+          <t>4.857553944643767</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.853233482204991</t>
+          <t>4.98654000142316</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.596700471104187</t>
+          <t>4.814612932950117</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.551348559672938</t>
+          <t>5.055865368041831</t>
         </is>
       </c>
     </row>
@@ -1167,22 +1167,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.106585765348297</t>
+          <t>3.674042484414314</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.217837080474101</t>
+          <t>4.395056281138106</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.380727952459286</t>
+          <t>4.54669134151626</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.905125354533625</t>
+          <t>3.4935114523357584</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1215,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7.428647619056981</t>
+          <t>4.652733644630182</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.4609612530494545</t>
+          <t>4.427196869631691</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.674975333282933</t>
+          <t>5.45259775808971</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3.8538358276524445</t>
+          <t>4.527361012900876</t>
         </is>
       </c>
     </row>
@@ -1263,22 +1263,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.054456412844011134</t>
+          <t>0.024992790103078217</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.04812151198076547</t>
+          <t>0.04525050343258468</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.04452377317958489</t>
+          <t>0.05890601465789163</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.040587172682692726</t>
+          <t>0.0472557739698148</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.13506856502859182</t>
+          <t>0.3923165245692962</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.24205843680188616</t>
+          <t>0.09440918835854938</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.22188983699285156</t>
+          <t>0.35720533555503337</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.24533035471763232</t>
+          <t>0.389947686219552</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.7152268858646094</t>
+          <t>2.0791286938444316</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.6563553620839642</t>
+          <t>1.8581062372511838</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.6571596624030298</t>
+          <t>1.9118503270994995</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.8407056514789235</t>
+          <t>1.3947061504901124</t>
         </is>
       </c>
     </row>
@@ -1407,22 +1407,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.4548932867429354</t>
+          <t>1.7868608039139682</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.5051526400001585</t>
+          <t>2.8251180456101</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.5963726267629275</t>
+          <t>2.5549850923675557</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.5478874138903147</t>
+          <t>1.8621192881390016</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.0039725085929154975</t>
+          <t>0.0045561201513354644</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.005688615918757952</t>
+          <t>0.004279358788750395</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.0041725523117832055</t>
+          <t>0.00400066484217229</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.004213565766518978</t>
+          <t>0.005544116066434146</t>
         </is>
       </c>
     </row>
@@ -1503,22 +1503,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-0.0015554648980760388</t>
+          <t>-0.0019094817607487108</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.047099922859607346</t>
+          <t>0.06494956460665963</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-0.017016748942769604</t>
+          <t>-0.01577160792626584</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0.038768308438501674</t>
+          <t>0.004599607698588546</t>
         </is>
       </c>
     </row>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.008761160158131902</t>
+          <t>0.011217381004906062</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.013725367493041702</t>
+          <t>0.014787493287469835</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.009425408530085014</t>
+          <t>0.00881925858795466</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.009034556322610686</t>
+          <t>0.007923491778229482</t>
         </is>
       </c>
     </row>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-0.07467700350562916</t>
+          <t>-0.11360759195834164</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.08195968092913802</t>
+          <t>-0.05552429688374034</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-0.09533339752862174</t>
+          <t>-0.08379902488528135</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0.06624456896942267</t>
+          <t>-0.06474726693335729</t>
         </is>
       </c>
     </row>
@@ -1646,16 +1646,16 @@
         <v>-3.980493354812726</v>
       </c>
       <c r="I27" t="n">
-        <v>-4.475634179532763</v>
+        <v>-4.338531683558299</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.757856828643728</v>
+        <v>-4.73144219985036</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.218649396864617</v>
+        <v>-5.216160646352035</v>
       </c>
       <c r="L27" t="n">
-        <v>-5.643081557602617</v>
+        <v>-5.489046215087573</v>
       </c>
     </row>
     <row r="28">
@@ -1685,22 +1685,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.12439182296872153</t>
+          <t>0.08994822923461912</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.06305757749406309</t>
+          <t>0.09056301646501068</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.09684876716902857</t>
+          <t>0.10244623648092016</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.08132988604158792</t>
+          <t>0.05231540729605045</t>
         </is>
       </c>
     </row>
@@ -1733,22 +1733,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-0.0022245002200646513</t>
+          <t>0.08222524636625447</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-0.18213535125556254</t>
+          <t>-0.04705106878735851</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.5114849744212723</t>
+          <t>0.07541740566054941</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.004810120505340354</t>
+          <t>0.003176136873292129</t>
         </is>
       </c>
     </row>
@@ -1781,22 +1781,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.10226588097954371</t>
+          <t>0.08862734783886238</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.0576627500259064</t>
+          <t>0.0631662226751084</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.07588852382272786</t>
+          <t>0.09140769705039169</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.0801872955381638</t>
+          <t>0.11442110201990613</t>
         </is>
       </c>
     </row>
@@ -1828,16 +1828,16 @@
         <v>0.2706222400642312</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3164541199065442</v>
+        <v>0.2672527038782608</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3146295101344558</v>
+        <v>0.3122090841165732</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3019175853889376</v>
+        <v>0.2651165238013923</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3151942896662965</v>
+        <v>0.2643090104791913</v>
       </c>
     </row>
     <row r="32">
@@ -1908,16 +1908,16 @@
         <v>0.0593837591020667</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05641225592017959</v>
+        <v>0.05919650270723194</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05651550831219695</v>
+        <v>0.05665247720267997</v>
       </c>
       <c r="K33" t="n">
-        <v>0.05723486028388847</v>
+        <v>0.05931738647432042</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05648354814267629</v>
+        <v>0.05936308264638888</v>
       </c>
     </row>
   </sheetData>
